--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14150" windowHeight="5860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15270" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
     <sheet name="MultipleOrg" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:K20"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -120,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -454,28 +454,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -532,21 +532,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -602,20 +602,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -631,7 +631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -639,7 +639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -647,7 +647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -655,7 +655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -663,7 +663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -671,7 +671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
